--- a/doc/Анализ решений.xlsx
+++ b/doc/Анализ решений.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>5d6r</t>
   </si>
@@ -67,6 +67,114 @@
   </si>
   <si>
     <t>8d10r</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Поколение</t>
+  </si>
+  <si>
+    <t>3.054131031036377 seconds</t>
+  </si>
+  <si>
+    <t>0.14277076721191406 seconds</t>
+  </si>
+  <si>
+    <t>0.5689659118652344 seconds</t>
+  </si>
+  <si>
+    <t>9.864631175994873 seconds</t>
+  </si>
+  <si>
+    <t>Время генерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время pathfinder </t>
+  </si>
+  <si>
+    <t>1.1124544143676758 seconds</t>
+  </si>
+  <si>
+    <t>3.438721179962158 seconds</t>
+  </si>
+  <si>
+    <t>2.8851442337036133 seconds</t>
+  </si>
+  <si>
+    <t>12.695085048675537 seconds</t>
+  </si>
+  <si>
+    <t>4.499470472335815 seconds</t>
+  </si>
+  <si>
+    <t>1.8697483539581299 seconds</t>
+  </si>
+  <si>
+    <t>0.5755927562713623 seconds</t>
+  </si>
+  <si>
+    <t>5.654425621032715 seconds</t>
+  </si>
+  <si>
+    <t>17.11556386947632 seconds</t>
+  </si>
+  <si>
+    <t>22.298349618911743 seconds</t>
+  </si>
+  <si>
+    <t>77.3821771144867 seconds</t>
+  </si>
+  <si>
+    <t>НИКОГДА</t>
+  </si>
+  <si>
+    <t>7 поколение 2,4ляма 8 поколение ВСЕ</t>
+  </si>
+  <si>
+    <t>0.0351259708404541 seconds</t>
+  </si>
+  <si>
+    <t>0.010082721710205078 seconds</t>
+  </si>
+  <si>
+    <t>0.067230224609375 seconds</t>
+  </si>
+  <si>
+    <t>0.019605636596679688 seconds</t>
+  </si>
+  <si>
+    <t>0.19421768188476562 seconds</t>
+  </si>
+  <si>
+    <t>0.09786272048950195 seconds</t>
+  </si>
+  <si>
+    <t>0.0970151424407959 seconds</t>
+  </si>
+  <si>
+    <t>0.20201921463012695 seconds</t>
+  </si>
+  <si>
+    <t>0.005323171615600586 seconds</t>
+  </si>
+  <si>
+    <t>0.018495798110961914 seconds</t>
+  </si>
+  <si>
+    <t>0.03793931007385254 seconds</t>
+  </si>
+  <si>
+    <t>0.1436176300048828 seconds</t>
+  </si>
+  <si>
+    <t>0.24606823921203613 seconds</t>
+  </si>
+  <si>
+    <t>0.9903445243835449 seconds</t>
+  </si>
+  <si>
+    <t>0.8134071826934814 seconds</t>
   </si>
 </sst>
 </file>
@@ -117,9 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,239 +509,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:N20"/>
+  <dimension ref="E4:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="F5" s="1">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="F6" s="1">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="F7" s="1">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="F8" s="1">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1">
+        <v>17</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="F10" s="1">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="F11" s="1">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1">
+        <v>13</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" s="1">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="F13" s="1">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="F14" s="1">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="F15" s="1">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="F16" s="1">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1">
+        <v>13</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="F17" s="1">
+        <v>4346</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>23</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="1">
+        <v>171</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1">
+        <v>21</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="F19" s="1">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1">
+        <v>19</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Анализ решений.xlsx
+++ b/doc/Анализ решений.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>5d6r</t>
   </si>
@@ -175,6 +175,54 @@
   </si>
   <si>
     <t>0.8134071826934814 seconds</t>
+  </si>
+  <si>
+    <t>Строится подбашня из 2 дисков на 3 штыре</t>
+  </si>
+  <si>
+    <t>Подбашен нет, один диск-один штырь</t>
+  </si>
+  <si>
+    <t>ходы одинаковые см выше</t>
+  </si>
+  <si>
+    <t>Строится подбашня из 3 дисков на 4 штыре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дешевле следующих </t>
+  </si>
+  <si>
+    <t>считаю это ошибкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Бля я хз почему он </t>
+  </si>
+  <si>
+    <t>Строится подбашня из 2 дисков на 3 штыре и по 1 диску на 4,5,6 штыре</t>
+  </si>
+  <si>
+    <t>Разложило по 1 диску на штырь</t>
+  </si>
+  <si>
+    <t>Строится подбашни из 2 дисков на 3 и 4 штыре и по 1 диску на 5,6 штыре</t>
+  </si>
+  <si>
+    <t>Строится подбашня из 2 дисков на 3 штыре и по 1 диску на 4,5,6,7 штыре</t>
+  </si>
+  <si>
+    <t>ОПЯТЬ КААААААААААААААК???</t>
+  </si>
+  <si>
+    <t>подбашня из 4 д на 5ш; из 2д на 3 штыре и  1 диск на 4 штыре</t>
+  </si>
+  <si>
+    <t>подбашня из 3 д на 4ш; из 2д на 3 штыре и  1 диск на 5,6 штыре</t>
+  </si>
+  <si>
+    <t>подбашня из 2 д на 3ш; из 2д на 4 штыре и  1 диск на 5,6,7 штыре</t>
+  </si>
+  <si>
+    <t>Описание(херзнает зачем я нумерацию штырей учитывал как с 1.., аа чтобы с файлами совпадало)</t>
   </si>
 </sst>
 </file>
@@ -198,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,14 +269,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,16 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:14" x14ac:dyDescent="0.25">
@@ -537,7 +598,10 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -555,8 +619,12 @@
       <c r="I5" s="1">
         <v>9</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -577,8 +645,12 @@
       <c r="I6" s="1">
         <v>9</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -599,8 +671,12 @@
       <c r="I7" s="1">
         <v>9</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -621,8 +697,12 @@
       <c r="I8" s="1">
         <v>9</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -643,8 +723,12 @@
       <c r="I9" s="1">
         <v>17</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -665,8 +749,12 @@
       <c r="I10" s="1">
         <v>15</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -687,9 +775,15 @@
       <c r="I11" s="1">
         <v>13</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
@@ -709,9 +803,15 @@
       <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
@@ -731,9 +831,15 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
@@ -753,8 +859,12 @@
       <c r="I14" s="1">
         <v>17</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -775,8 +885,12 @@
       <c r="I15" s="1">
         <v>15</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -797,9 +911,15 @@
       <c r="I16" s="1">
         <v>13</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
@@ -819,8 +939,12 @@
       <c r="I17" s="1">
         <v>23</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -841,8 +965,12 @@
       <c r="I18" s="1">
         <v>21</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -863,8 +991,12 @@
       <c r="I19" s="1">
         <v>19</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -882,7 +1014,9 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>

--- a/doc/Анализ решений.xlsx
+++ b/doc/Анализ решений.xlsx
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
